--- a/input.xlsx
+++ b/input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Telechargement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bertrand\PYTHON3\VALEO_GA\VALEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29384A09-4E90-4A28-8DE4-B54FEBA77336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DB67B3-D6E2-4530-B31C-BCF36C6E5933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="confs" sheetId="1" r:id="rId1"/>
@@ -172,27 +172,12 @@
     <t>C1</t>
   </si>
   <si>
-    <t>P0</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>E0</t>
-  </si>
-  <si>
     <t>C0</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
@@ -272,6 +257,21 @@
   </si>
   <si>
     <t>limit</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>PX</t>
+  </si>
+  <si>
+    <t>EX</t>
   </si>
 </sst>
 </file>
@@ -330,10 +330,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1092,7 +1095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1123,25 +1128,25 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1149,25 +1154,25 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1175,51 +1180,51 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>56</v>
+      <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1227,25 +1232,25 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1253,25 +1258,25 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1279,25 +1284,25 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1305,25 +1310,25 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1331,25 +1336,25 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1357,29 +1362,41 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:H11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1388,7 +1405,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1396,16 +1413,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1413,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>0.3</v>
@@ -1430,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>0.6</v>
@@ -1447,7 +1464,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>0.2</v>
@@ -1464,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>0.8</v>
@@ -1481,7 +1498,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>0.2</v>
@@ -1498,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>0.8</v>
@@ -1515,7 +1532,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>0.6</v>
@@ -1532,7 +1549,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>0.7</v>
@@ -1549,7 +1566,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -1566,7 +1583,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>0.5</v>
@@ -1583,7 +1600,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>0.5</v>
@@ -1600,7 +1617,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>0.5</v>
@@ -1617,7 +1634,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>0.8</v>
@@ -1634,7 +1651,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>0.7</v>
@@ -1651,7 +1668,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>0.9</v>
@@ -1668,7 +1685,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>0.3</v>
@@ -1685,7 +1702,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>0.5</v>
@@ -1702,7 +1719,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>0.1</v>
@@ -1729,16 +1746,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1746,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1780,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1797,7 +1814,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>0</v>
